--- a/MiddleAssignment/Assignment3_TESTCASE_KimAnh.xlsb.xlsx
+++ b/MiddleAssignment/Assignment3_TESTCASE_KimAnh.xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitonl\NashTechHW\MiddleAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3537A369-24CB-4CE6-89C6-83624B2079EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9E9791-4424-42BB-9047-06722BD3CC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4752" yWindow="0" windowWidth="18264" windowHeight="12408" tabRatio="840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Record of Change" sheetId="4" r:id="rId1"/>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="286">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -1244,6 +1244,9 @@
 3. Observe products list
 4. Click on sort part to select low to high sorting
 5. Observe products list</t>
+  </si>
+  <si>
+    <t>scope test la gi. Hinh dung tap dau vao dau ra de co cac case ra sao. Confirm requirement</t>
   </si>
 </sst>
 </file>
@@ -2737,6 +2740,30 @@
     <xf numFmtId="0" fontId="63" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2746,29 +2773,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="42" fillId="11" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="43" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="43" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2776,9 +2821,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2791,52 +2833,13 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="42" fillId="11" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="43" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="43" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4561,8 +4564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -4576,10 +4579,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="190"/>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
+      <c r="A1" s="188"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -4588,13 +4591,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="189" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="186"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="194"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -4603,9 +4606,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="26.4" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="186"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="194"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -4616,11 +4619,11 @@
       <c r="A4" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="188" t="s">
+      <c r="B4" s="191" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -4634,9 +4637,9 @@
       <c r="A5" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="188"/>
-      <c r="D5" s="188"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="191"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -4650,11 +4653,11 @@
       <c r="A6" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="189" t="s">
+      <c r="B6" s="190" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="188"/>
-      <c r="D6" s="188"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -4665,11 +4668,11 @@
       <c r="A7" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="188" t="s">
+      <c r="B7" s="191" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="191"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -4826,11 +4829,11 @@
       <c r="C16" s="49"/>
       <c r="D16" s="50"/>
       <c r="E16" s="55"/>
-      <c r="F16" s="185" t="s">
+      <c r="F16" s="193" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
       <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39.6">
@@ -4864,11 +4867,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="157"/>
-      <c r="B18" s="193" t="s">
+      <c r="B18" s="185" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="194"/>
-      <c r="D18" s="195"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="187"/>
       <c r="E18" s="157"/>
       <c r="F18" s="158"/>
       <c r="G18" s="158"/>
@@ -4908,7 +4911,9 @@
       <c r="D20" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="E20" s="155"/>
+      <c r="E20" s="155" t="s">
+        <v>285</v>
+      </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
       <c r="H20" s="51"/>
@@ -5236,11 +5241,11 @@
     </row>
     <row r="37" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="157"/>
-      <c r="B37" s="193" t="s">
+      <c r="B37" s="185" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="194"/>
-      <c r="D37" s="195"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="187"/>
       <c r="E37" s="157"/>
       <c r="F37" s="158"/>
       <c r="G37" s="158"/>
@@ -5329,11 +5334,11 @@
     </row>
     <row r="42" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="157"/>
-      <c r="B42" s="193" t="s">
+      <c r="B42" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="C42" s="194"/>
-      <c r="D42" s="195"/>
+      <c r="C42" s="186"/>
+      <c r="D42" s="187"/>
       <c r="E42" s="157"/>
       <c r="F42" s="158"/>
       <c r="G42" s="158"/>
@@ -5422,11 +5427,11 @@
     </row>
     <row r="47" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A47" s="157"/>
-      <c r="B47" s="193" t="s">
+      <c r="B47" s="185" t="s">
         <v>198</v>
       </c>
-      <c r="C47" s="194"/>
-      <c r="D47" s="195"/>
+      <c r="C47" s="186"/>
+      <c r="D47" s="187"/>
       <c r="E47" s="157"/>
       <c r="F47" s="158"/>
       <c r="G47" s="158"/>
@@ -5595,11 +5600,11 @@
     </row>
     <row r="56" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A56" s="157"/>
-      <c r="B56" s="193" t="s">
+      <c r="B56" s="185" t="s">
         <v>278</v>
       </c>
-      <c r="C56" s="194"/>
-      <c r="D56" s="195"/>
+      <c r="C56" s="186"/>
+      <c r="D56" s="187"/>
       <c r="E56" s="157"/>
       <c r="F56" s="158"/>
       <c r="G56" s="158"/>
@@ -5668,21 +5673,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
@@ -5735,13 +5740,13 @@
     </row>
     <row r="2" spans="1:12" s="73" customFormat="1" ht="24.6">
       <c r="A2" s="72"/>
-      <c r="C2" s="214" t="s">
+      <c r="C2" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
       <c r="H2" s="74" t="s">
         <v>88</v>
       </c>
@@ -5752,15 +5757,15 @@
     </row>
     <row r="3" spans="1:12" s="73" customFormat="1" ht="22.8">
       <c r="A3" s="72"/>
-      <c r="C3" s="215" t="s">
+      <c r="C3" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="215"/>
+      <c r="D3" s="199"/>
       <c r="E3" s="145"/>
-      <c r="F3" s="216" t="s">
+      <c r="F3" s="200" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="216"/>
+      <c r="G3" s="200"/>
       <c r="H3" s="75"/>
       <c r="I3" s="75"/>
       <c r="J3" s="76"/>
@@ -5785,10 +5790,10 @@
       <c r="L5" s="81"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="198" t="s">
+      <c r="B6" s="201" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="198"/>
+      <c r="C6" s="201"/>
       <c r="D6" s="83"/>
       <c r="E6" s="83"/>
       <c r="F6" s="83"/>
@@ -5929,11 +5934,11 @@
       <c r="G12" s="87"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B13" s="198" t="s">
+      <c r="B13" s="201" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="198"/>
-      <c r="D13" s="198"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="201"/>
       <c r="E13" s="83"/>
       <c r="F13" s="83"/>
       <c r="G13" s="84"/>
@@ -6080,11 +6085,11 @@
       <c r="G20" s="87"/>
     </row>
     <row r="21" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B21" s="198" t="s">
+      <c r="B21" s="201" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="198"/>
-      <c r="D21" s="198"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="201"/>
       <c r="E21" s="83"/>
       <c r="F21" s="83"/>
       <c r="G21" s="84"/>
@@ -6130,10 +6135,10 @@
       <c r="F24" s="148" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="217" t="s">
+      <c r="G24" s="202" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="218"/>
+      <c r="H24" s="203"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="89">
@@ -6158,8 +6163,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G25" s="209"/>
-      <c r="H25" s="210"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="197"/>
     </row>
     <row r="26" spans="1:12" ht="20.25" customHeight="1">
       <c r="A26" s="89">
@@ -6184,8 +6189,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G26" s="209"/>
-      <c r="H26" s="210"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="197"/>
     </row>
     <row r="27" spans="1:12" ht="20.25" customHeight="1">
       <c r="A27" s="89">
@@ -6210,8 +6215,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="209"/>
-      <c r="H27" s="210"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="197"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="89">
@@ -6236,8 +6241,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="209"/>
-      <c r="H28" s="210"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="197"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="89"/>
@@ -6258,8 +6263,8 @@
         <f>SUM(F25:F28)</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="209"/>
-      <c r="H29" s="210"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="197"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="95"/>
@@ -6297,7 +6302,7 @@
       <c r="E32" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="203" t="s">
+      <c r="F32" s="204" t="s">
         <v>100</v>
       </c>
       <c r="G32" s="205"/>
@@ -6316,8 +6321,8 @@
       <c r="E33" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="F33" s="212"/>
-      <c r="G33" s="213"/>
+      <c r="F33" s="207"/>
+      <c r="G33" s="208"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -6340,8 +6345,8 @@
       <c r="E34" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F34" s="209"/>
-      <c r="G34" s="210"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="197"/>
     </row>
     <row r="35" spans="1:12" ht="20.25" customHeight="1">
       <c r="A35" s="89">
@@ -6359,8 +6364,8 @@
       <c r="E35" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="209"/>
-      <c r="G35" s="210"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="197"/>
     </row>
     <row r="36" spans="1:12" ht="20.25" customHeight="1">
       <c r="A36" s="95"/>
@@ -6373,10 +6378,10 @@
       <c r="H36" s="97"/>
     </row>
     <row r="37" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B37" s="198" t="s">
+      <c r="B37" s="201" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="198"/>
+      <c r="C37" s="201"/>
       <c r="D37" s="83"/>
       <c r="E37" s="83"/>
       <c r="F37" s="83"/>
@@ -6400,15 +6405,15 @@
       <c r="B39" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="211" t="s">
+      <c r="C39" s="206" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="211"/>
-      <c r="E39" s="211" t="s">
+      <c r="D39" s="206"/>
+      <c r="E39" s="206" t="s">
         <v>152</v>
       </c>
-      <c r="F39" s="211"/>
-      <c r="G39" s="211"/>
+      <c r="F39" s="206"/>
+      <c r="G39" s="206"/>
       <c r="H39" s="88" t="s">
         <v>153</v>
       </c>
@@ -6420,15 +6425,15 @@
       <c r="B40" s="149" t="s">
         <v>154</v>
       </c>
-      <c r="C40" s="208" t="s">
+      <c r="C40" s="209" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="208"/>
-      <c r="E40" s="208" t="s">
+      <c r="D40" s="209"/>
+      <c r="E40" s="209" t="s">
         <v>156</v>
       </c>
-      <c r="F40" s="208"/>
-      <c r="G40" s="208"/>
+      <c r="F40" s="209"/>
+      <c r="G40" s="209"/>
       <c r="H40" s="98"/>
     </row>
     <row r="41" spans="1:12" ht="34.5" customHeight="1">
@@ -6438,15 +6443,15 @@
       <c r="B41" s="149" t="s">
         <v>154</v>
       </c>
-      <c r="C41" s="208" t="s">
+      <c r="C41" s="209" t="s">
         <v>155</v>
       </c>
-      <c r="D41" s="208"/>
-      <c r="E41" s="208" t="s">
+      <c r="D41" s="209"/>
+      <c r="E41" s="209" t="s">
         <v>156</v>
       </c>
-      <c r="F41" s="208"/>
-      <c r="G41" s="208"/>
+      <c r="F41" s="209"/>
+      <c r="G41" s="209"/>
       <c r="H41" s="98"/>
     </row>
     <row r="42" spans="1:12" ht="34.5" customHeight="1">
@@ -6456,15 +6461,15 @@
       <c r="B42" s="149" t="s">
         <v>154</v>
       </c>
-      <c r="C42" s="208" t="s">
+      <c r="C42" s="209" t="s">
         <v>155</v>
       </c>
-      <c r="D42" s="208"/>
-      <c r="E42" s="208" t="s">
+      <c r="D42" s="209"/>
+      <c r="E42" s="209" t="s">
         <v>156</v>
       </c>
-      <c r="F42" s="208"/>
-      <c r="G42" s="208"/>
+      <c r="F42" s="209"/>
+      <c r="G42" s="209"/>
       <c r="H42" s="98"/>
     </row>
     <row r="43" spans="1:12">
@@ -6476,10 +6481,10 @@
       <c r="G43" s="87"/>
     </row>
     <row r="44" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B44" s="198" t="s">
+      <c r="B44" s="201" t="s">
         <v>157</v>
       </c>
-      <c r="C44" s="198"/>
+      <c r="C44" s="201"/>
       <c r="D44" s="83"/>
       <c r="E44" s="83"/>
       <c r="F44" s="83"/>
@@ -6497,25 +6502,25 @@
       <c r="G45" s="87"/>
     </row>
     <row r="46" spans="1:12" s="102" customFormat="1" ht="21" customHeight="1">
-      <c r="A46" s="199" t="s">
+      <c r="A46" s="212" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="201" t="s">
+      <c r="B46" s="214" t="s">
         <v>159</v>
       </c>
-      <c r="C46" s="203" t="s">
+      <c r="C46" s="204" t="s">
         <v>160</v>
       </c>
-      <c r="D46" s="204"/>
-      <c r="E46" s="204"/>
+      <c r="D46" s="216"/>
+      <c r="E46" s="216"/>
       <c r="F46" s="205"/>
-      <c r="G46" s="206" t="s">
+      <c r="G46" s="217" t="s">
         <v>127</v>
       </c>
-      <c r="H46" s="206" t="s">
+      <c r="H46" s="217" t="s">
         <v>159</v>
       </c>
-      <c r="I46" s="196" t="s">
+      <c r="I46" s="210" t="s">
         <v>161</v>
       </c>
       <c r="J46" s="101"/>
@@ -6523,8 +6528,8 @@
       <c r="L46" s="101"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="200"/>
-      <c r="B47" s="202"/>
+      <c r="A47" s="213"/>
+      <c r="B47" s="215"/>
       <c r="C47" s="103" t="s">
         <v>136</v>
       </c>
@@ -6537,13 +6542,13 @@
       <c r="F47" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="G47" s="207"/>
-      <c r="H47" s="207"/>
-      <c r="I47" s="197"/>
+      <c r="G47" s="218"/>
+      <c r="H47" s="218"/>
+      <c r="I47" s="211"/>
     </row>
     <row r="48" spans="1:12" ht="39.6">
-      <c r="A48" s="200"/>
-      <c r="B48" s="202"/>
+      <c r="A48" s="213"/>
+      <c r="B48" s="215"/>
       <c r="C48" s="117" t="s">
         <v>162</v>
       </c>
@@ -6655,6 +6660,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="F33:G33"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -6667,26 +6692,6 @@
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
   </mergeCells>
   <conditionalFormatting sqref="H49">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -6724,6 +6729,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -6888,22 +6908,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6920,21 +6942,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>